--- a/biology/Zoologie/Hyphessobrycon_amapaensis/Hyphessobrycon_amapaensis.xlsx
+++ b/biology/Zoologie/Hyphessobrycon_amapaensis/Hyphessobrycon_amapaensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyphessobrycon amapaensis ou Tétra Amapa[1] est une espèce de poissons d'eau douce de la famille des Characidae et de l'ordre des Characiformes. Parfois communément appelé le "faux néon rose".
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyphessobrycon amapaensis ou Tétra Amapa est une espèce de poissons d'eau douce de la famille des Characidae et de l'ordre des Characiformes. Parfois communément appelé le "faux néon rose".
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Sud dans la région de l'Amapa au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Amérique du Sud dans la région de l'Amapa au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Dimorphisme sexuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles sont un peu plus grandes avec un ventre rond[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles sont un peu plus grandes avec un ventre rond.
 </t>
         </is>
       </c>
@@ -573,11 +589,48 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grégaire[1].  A maintenir en groupe dans un bac planté, avec des poissons calmes et pas trop gros. Bien que facile à maintenir en aquarium, sa reproduction en captivité est difficile et doit se faire dans un bac où les parents seront isolés. Malgré sa taille, il nécessite un volume minimum de 60 litres et doit être maintenu par groupes de 10 minimum.
-Musée
-L'Aquarium du palais de la Porte Dorée détient un petit groupe de spécimens (Vidéo[2]). (06/2015)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grégaire.  A maintenir en groupe dans un bac planté, avec des poissons calmes et pas trop gros. Bien que facile à maintenir en aquarium, sa reproduction en captivité est difficile et doit se faire dans un bac où les parents seront isolés. Malgré sa taille, il nécessite un volume minimum de 60 litres et doit être maintenu par groupes de 10 minimum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hyphessobrycon_amapaensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyphessobrycon_amapaensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En captivité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Musée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aquarium du palais de la Porte Dorée détient un petit groupe de spécimens (Vidéo). (06/2015)
 </t>
         </is>
       </c>
